--- a/目前版本/商管程二.xlsx
+++ b/目前版本/商管程二.xlsx
@@ -8,216 +8,157 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunny\Desktop\final project\PBC-Final\目前版本\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D78A20E-D0E6-45D4-BBF6-F391E2B4734D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5A03CE-2550-4BBB-AFE8-D955514E9012}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="商管程二" sheetId="1" r:id="rId1"/>
-    <sheet name="Meeting record" sheetId="2" r:id="rId2"/>
-    <sheet name="出缺勤" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="55">
-  <si>
-    <t>2020/12/09</t>
-  </si>
-  <si>
-    <t>2020/12/10</t>
-  </si>
-  <si>
-    <t>2020/12/11</t>
-  </si>
-  <si>
-    <t>2020/12/12</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="45">
+  <si>
+    <t>2021/1/11</t>
+  </si>
+  <si>
+    <t>2021/1/12</t>
+  </si>
+  <si>
+    <t>2021/1/13</t>
+  </si>
+  <si>
+    <t>2021/1/14</t>
+  </si>
+  <si>
+    <t>2021/1/15</t>
+  </si>
+  <si>
+    <t>2021/1/16</t>
+  </si>
+  <si>
+    <t>2021/1/17</t>
+  </si>
+  <si>
+    <t>2021/1/18</t>
+  </si>
+  <si>
+    <t>陳思羽,黃萱,簡嘉誼,呂侑蓁,劉詠晴,許庭瑄,孔令傑,盧信銘,蔡崇聖,林明仁,古慧雯,李宗穎</t>
   </si>
   <si>
     <t>黃萱,簡嘉誼</t>
   </si>
   <si>
+    <t>陳思羽,黃萱,簡嘉誼,呂侑蓁,劉詠晴,許庭瑄,孔令傑,盧信銘,蔡崇聖,林明仁,古慧雯,李宗穎,高恩琵</t>
+  </si>
+  <si>
     <t>黃萱,簡嘉誼,劉詠晴</t>
   </si>
   <si>
+    <t>簡嘉誼,呂侑蓁,劉詠晴,許庭瑄,孔令傑,盧信銘,蔡崇聖,林明仁,古慧雯,李宗穎,高恩琵</t>
+  </si>
+  <si>
+    <t>呂侑蓁,劉詠晴,許庭瑄,孔令傑,盧信銘,蔡崇聖,林明仁,古慧雯,李宗穎,高恩琵</t>
+  </si>
+  <si>
+    <t>陳思羽,黃萱,簡嘉誼,呂侑蓁,劉詠晴,許庭瑄,孔令傑,盧信銘,蔡崇聖,林明仁</t>
+  </si>
+  <si>
+    <t>陳思羽,呂侑蓁,劉詠晴</t>
+  </si>
+  <si>
+    <t>黃萱,簡嘉誼,劉詠晴,許庭瑄</t>
+  </si>
+  <si>
+    <t>黃萱,簡嘉誼,許庭瑄</t>
+  </si>
+  <si>
+    <t>陳思羽,黃萱,簡嘉誼,許庭瑄</t>
+  </si>
+  <si>
+    <t>黃萱,呂侑蓁,許庭瑄</t>
+  </si>
+  <si>
+    <t>陳思羽,黃萱,簡嘉誼,劉詠晴</t>
+  </si>
+  <si>
+    <t>陳思羽,黃萱,簡嘉誼,呂侑蓁,劉詠晴,許庭瑄,孔令傑,盧信銘,蔡崇聖</t>
+  </si>
+  <si>
+    <t>劉詠晴,許庭瑄</t>
+  </si>
+  <si>
+    <t>陳思羽,劉詠晴,許庭瑄</t>
+  </si>
+  <si>
+    <t>呂侑蓁,許庭瑄</t>
+  </si>
+  <si>
+    <t>劉詠晴,許庭瑄,孔令傑,盧信銘,蔡崇聖,林明仁,古慧雯,李宗穎,高恩琵</t>
+  </si>
+  <si>
+    <t>小傑,陳思羽,黃萱,簡嘉誼,呂侑蓁,劉詠晴,許庭瑄,孔令傑,盧信銘,蔡崇聖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>陳思羽</t>
   </si>
   <si>
-    <t>呂侑蓁</t>
-  </si>
-  <si>
-    <t>許庭萱</t>
-  </si>
-  <si>
-    <t xml:space="preserve">page0:封面
-page1:創建新會議按鈕、呈現已創建的會議
-page2:創建新會議視窗——會議名稱、選擇時間
-page3:進入會議——新增成員時間、查看成員時間、記錄會議
-page4：新增成員時間——名字、時間表
-page5:查看成員時間
-page6:紀錄會議——出缺勤、會議記錄、結束會議
-page7:出缺勤、任務完成與否
-page8:會議記錄、會議時間
-page9:結束會議：會議記錄可視化
-許庭瑄、劉詠晴page0～2
-陳思羽、黃萱page3～5
-呂侑蓁、簡嘉誼page6～9
-</t>
-  </si>
-  <si>
-    <t>12/12 19:00</t>
-  </si>
-  <si>
-    <t>準時</t>
-  </si>
-  <si>
-    <t>無任務</t>
-  </si>
-  <si>
-    <t>黃萱</t>
-  </si>
-  <si>
-    <t>簡嘉誼</t>
-  </si>
-  <si>
-    <t>劉詠晴</t>
-  </si>
-  <si>
-    <t>完成任務</t>
-  </si>
-  <si>
-    <t>陳思羽,黃萱,簡嘉誼,許庭瑄</t>
-  </si>
-  <si>
-    <t>黃萱,簡嘉誼,劉詠晴,許庭瑄</t>
-  </si>
-  <si>
-    <t>黃萱,簡嘉誼,許庭瑄</t>
-  </si>
-  <si>
-    <t>黃萱,呂侑蓁,許庭瑄</t>
-  </si>
-  <si>
-    <t>陳思羽,劉詠晴,許庭瑄</t>
-  </si>
-  <si>
-    <t>呂侑蓁,許庭瑄</t>
+    <t>小傑,劉詠晴,許庭瑄,孔令傑,盧信銘,蔡崇聖,林明仁,古慧雯,李宗穎,高恩琵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小傑,孔令傑,盧信銘,蔡崇聖,林明仁,古慧雯,李宗穎,高恩琵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳思羽,呂侑蓁,劉詠晴,許庭瑄</t>
+  </si>
+  <si>
+    <t>陳思羽,黃萱,簡嘉誼,呂侑蓁,劉詠晴,許庭瑄,孔令傑,盧信銘,蔡崇聖,林明仁,古慧雯</t>
   </si>
   <si>
     <t>陳思羽,呂侑蓁,許庭瑄</t>
   </si>
   <si>
-    <t>劉詠晴,許庭瑄</t>
-  </si>
-  <si>
-    <t>陳思羽,呂侑蓁,劉詠晴,許庭瑄</t>
+    <t>陳思羽,劉詠晴,孔令傑,盧信銘,蔡崇聖,林明仁</t>
+  </si>
+  <si>
+    <t>許庭瑄,孔令傑,盧信銘,蔡崇聖,林明仁</t>
+  </si>
+  <si>
+    <t>黃萱,簡嘉誼,呂侑蓁,劉詠晴,許庭瑄,孔令傑,盧信銘,蔡崇聖,林明仁,古慧雯,李宗穎,高恩琵</t>
+  </si>
+  <si>
+    <t>呂侑蓁,劉詠晴,許庭瑄</t>
+  </si>
+  <si>
+    <t>呂侑蓁,劉詠晴,許庭瑄,孔令傑,盧信銘,蔡崇聖,林明仁</t>
+  </si>
+  <si>
+    <t>盧信銘,蔡崇聖,林明仁,古慧雯,李宗穎,高恩琵</t>
+  </si>
+  <si>
+    <t>蔡崇聖,林明仁,古慧雯,李宗穎,高恩琵</t>
+  </si>
+  <si>
+    <t>陳思羽,許庭瑄</t>
   </si>
   <si>
     <t>許庭瑄</t>
   </si>
   <si>
-    <t>呂侑蓁,劉詠晴,許庭瑄</t>
-  </si>
-  <si>
-    <t>陳思羽,許庭瑄</t>
-  </si>
-  <si>
-    <t>陳思羽,黃萱,簡嘉誼,呂侑蓁,劉詠晴,許庭瑄,孔令傑,盧信銘,蔡崇聖,林明仁,古慧雯,李宗穎,高恩琵</t>
+    <t>許庭瑄,孔令傑,盧信銘,蔡崇聖,林明仁,古慧雯,李宗穎,高恩琵</t>
+  </si>
+  <si>
+    <t>小傑,陳思羽,黃萱,簡嘉誼,呂侑蓁,劉詠晴,許庭瑄,孔令傑,盧信銘,蔡崇聖,林明仁,古慧雯,李宗穎,高恩琵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>陳思羽,劉詠晴,孔令傑,盧信銘,蔡崇聖,林明仁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>呂侑蓁,劉詠晴,許庭瑄,孔令傑,盧信銘,蔡崇聖,林明仁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>許庭瑄,孔令傑,盧信銘,蔡崇聖,林明仁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陳思羽,黃萱,簡嘉誼,呂侑蓁,劉詠晴,許庭瑄,孔令傑,盧信銘,蔡崇聖,林明仁,古慧雯,李宗穎,高恩琵</t>
-  </si>
-  <si>
-    <t>黃萱,簡嘉誼,呂侑蓁,劉詠晴,許庭瑄,孔令傑,盧信銘,蔡崇聖,林明仁,古慧雯,李宗穎,高恩琵</t>
-  </si>
-  <si>
-    <t>許庭瑄,孔令傑,盧信銘,蔡崇聖,林明仁,古慧雯,李宗穎,高恩琵</t>
-  </si>
-  <si>
-    <t>簡嘉誼,呂侑蓁,劉詠晴,許庭瑄,孔令傑,盧信銘,蔡崇聖,林明仁,古慧雯,李宗穎,高恩琵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>劉詠晴,許庭瑄,孔令傑,盧信銘,蔡崇聖,林明仁,古慧雯,李宗穎,高恩琵</t>
-  </si>
-  <si>
-    <t>許庭瑄,孔令傑,盧信銘,蔡崇聖,林明仁</t>
-  </si>
-  <si>
-    <t>蔡崇聖,林明仁,古慧雯,李宗穎,高恩琵</t>
-  </si>
-  <si>
-    <t>呂侑蓁,劉詠晴,許庭瑄,孔令傑,盧信銘,蔡崇聖,林明仁,古慧雯,李宗穎,高恩琵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>劉詠晴,許庭瑄,孔令傑,盧信銘,蔡崇聖,林明仁,古慧雯,李宗穎,高恩琵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>盧信銘,蔡崇聖,林明仁,古慧雯,李宗穎,高恩琵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陳思羽,黃萱,簡嘉誼,呂侑蓁,劉詠晴,許庭瑄,孔令傑,盧信銘,蔡崇聖,林明仁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孔令傑,盧信銘,蔡崇聖,林明仁,古慧雯,李宗穎,高恩琵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蔡崇聖,林明仁,古慧雯,李宗穎,高恩琵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陳思羽,黃萱,簡嘉誼,呂侑蓁,劉詠晴,許庭瑄,孔令傑,盧信銘,蔡崇聖,林明仁,古慧雯,李宗穎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陳思羽,黃萱,簡嘉誼,呂侑蓁,劉詠晴,許庭瑄,孔令傑,盧信銘,蔡崇聖,林明仁,古慧雯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陳思羽,黃萱,簡嘉誼,劉詠晴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陳思羽,黃萱,簡嘉誼,呂侑蓁,劉詠晴,許庭瑄,孔令傑,盧信銘,蔡崇聖,林明仁,古慧雯,李宗穎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陳思羽,黃萱,簡嘉誼,呂侑蓁,劉詠晴,許庭瑄,孔令傑,盧信銘,蔡崇聖,林明仁,古慧雯,李宗穎,高恩琵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陳思羽,呂侑蓁,劉詠晴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陳思羽,黃萱,簡嘉誼,呂侑蓁,劉詠晴,許庭瑄,孔令傑,盧信銘,蔡崇聖,林明仁,古慧雯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陳思羽,黃萱,簡嘉誼,呂侑蓁,劉詠晴,許庭瑄,孔令傑,盧信銘,蔡崇聖</t>
-  </si>
-  <si>
-    <t>陳思羽,黃萱,簡嘉誼,呂侑蓁,劉詠晴,許庭瑄,孔令傑,盧信銘,蔡崇聖</t>
+    <t>小傑,陳思羽,黃萱,簡嘉誼,呂侑蓁,劉詠晴,許庭瑄,孔令傑,盧信銘,蔡崇聖,林明仁,古慧雯,李宗穎,高恩琵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -269,9 +210,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -578,13 +518,10 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C9"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="6" max="10" width="10.69921875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
@@ -599,489 +536,486 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1">
-        <v>44178</v>
-      </c>
-      <c r="G1" s="1">
-        <v>44179</v>
-      </c>
-      <c r="H1" s="1">
-        <v>44180</v>
-      </c>
-      <c r="I1" s="1">
-        <v>44181</v>
-      </c>
-      <c r="J1" s="1">
-        <v>44182</v>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="J2" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="J3" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="J4" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
         <v>20</v>
       </c>
-      <c r="F5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" t="s">
-        <v>48</v>
-      </c>
       <c r="J5" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="J6" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="I7" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="J7" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="I8" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="J8" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" t="s">
         <v>25</v>
       </c>
-      <c r="E9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" t="s">
-        <v>41</v>
-      </c>
       <c r="H9" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="I9" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="J9" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" t="s">
         <v>25</v>
       </c>
-      <c r="E10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" t="s">
-        <v>41</v>
-      </c>
       <c r="H10" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="I10" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="J10" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G11" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="H11" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="I11" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="J11" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
         <v>30</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" t="s">
         <v>25</v>
       </c>
-      <c r="E12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" t="s">
-        <v>41</v>
-      </c>
       <c r="H12" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="I12" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="J12" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" t="s">
         <v>25</v>
       </c>
-      <c r="E13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" t="s">
-        <v>41</v>
-      </c>
       <c r="H13" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="I13" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="J13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>45</v>
+      <c r="H14" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="I14" t="s">
         <v>39</v>
       </c>
       <c r="J14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>45</v>
+      <c r="H15" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="I15" t="s">
         <v>39</v>
       </c>
       <c r="J15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F16" t="s">
         <v>39</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>45</v>
+      <c r="G16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="I16" t="s">
         <v>39</v>
       </c>
       <c r="J16" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="E17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F17" t="s">
         <v>39</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>45</v>
+      <c r="G17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="I17" t="s">
         <v>39</v>
       </c>
       <c r="J17" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1089,106 +1023,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>